--- a/IES Gant Chart.xlsx
+++ b/IES Gant Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedur\Documents\GitHub\IndiEngiSchola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\IndiEngiSchola\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>PERIODS</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>S Durbridge Independent Engineering Scholarship 2017</t>
+  </si>
+  <si>
+    <t>Sparse FDTD Algorithm Development 3D</t>
+  </si>
+  <si>
+    <t>Generic FDTD Algorithm Development 3D</t>
+  </si>
+  <si>
+    <t>PTSD Algorithm Development 3D</t>
   </si>
 </sst>
 </file>
@@ -676,33 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -733,9 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -763,6 +742,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="% complete" xfId="16"/>
@@ -785,7 +794,346 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1163,16 +1511,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AM357"/>
+  <dimension ref="B1:AM360"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AM39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="AM42" sqref="B1:AM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="40.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="4.75" style="1" customWidth="1"/>
@@ -1218,114 +1566,114 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
     </row>
     <row r="2" spans="2:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="12">
         <v>1</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="26" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="19" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="27" t="s">
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
     </row>
     <row r="3" spans="2:39" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="45" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="8"/>
       <c r="K3" s="38" t="s">
         <v>48</v>
@@ -1360,12 +1708,12 @@
       <c r="AM3" s="38"/>
     </row>
     <row r="4" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1463,8 +1811,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:39" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6">
@@ -1479,12 +1827,12 @@
       <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:39" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6">
@@ -1499,16 +1847,16 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:39" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>16</v>
+    <row r="7" spans="2:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -1517,18 +1865,18 @@
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:39" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1539,162 +1887,162 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="32">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>21</v>
+    <row r="9" spans="2:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:39" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="G10" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C12" s="30">
         <v>9</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D12" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F12" s="30">
         <v>2</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G12" s="32">
         <v>0.5</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="15"/>
-      <c r="AC10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AM10" s="16"/>
-    </row>
-    <row r="11" spans="2:39" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="15"/>
+      <c r="AC12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AM12" s="16"/>
+    </row>
+    <row r="13" spans="2:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>10</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="42">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:39" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6">
-        <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:39" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
       <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:39" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1705,19 +2053,19 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:39" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
-        <v>25</v>
+    <row r="16" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1725,36 +2073,36 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>18</v>
+    <row r="17" spans="2:39" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6">
+        <v>15</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
-        <v>27</v>
+    <row r="18" spans="2:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1765,16 +2113,16 @@
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:39" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>28</v>
+    <row r="19" spans="2:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -1785,108 +2133,56 @@
       <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:39" s="31" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="40">
-        <v>21</v>
-      </c>
-      <c r="D20" s="40">
+    <row r="20" spans="2:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="32">
         <v>0</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="15"/>
-      <c r="AC20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AM20" s="16"/>
-    </row>
-    <row r="21" spans="2:39" s="31" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="40">
-        <v>22</v>
-      </c>
-      <c r="D21" s="40">
+    </row>
+    <row r="21" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="6">
         <v>0</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="6">
         <v>0</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="32">
         <v>0</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="15"/>
-      <c r="AC21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AM21" s="16"/>
-    </row>
-    <row r="22" spans="2:39" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
-        <v>31</v>
+    </row>
+    <row r="22" spans="2:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1897,56 +2193,108 @@
       <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:39" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6">
+    <row r="23" spans="2:39" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="30">
+        <v>21</v>
+      </c>
+      <c r="D23" s="30">
         <v>1</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="30">
         <v>0</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="30">
         <v>0</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="H23" s="21"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="15"/>
+      <c r="AC23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AM23" s="16"/>
+    </row>
+    <row r="24" spans="2:39" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="30">
+        <v>22</v>
+      </c>
+      <c r="D24" s="30">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="30">
         <v>0</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
-        <v>34</v>
+      <c r="H24" s="21"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="15"/>
+      <c r="AC24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AM24" s="16"/>
+    </row>
+    <row r="25" spans="2:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1957,16 +2305,16 @@
       <c r="F25" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
-        <v>35</v>
+    <row r="26" spans="2:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1977,71 +2325,39 @@
       <c r="F26" s="6">
         <v>0</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="17">
+    <row r="27" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6">
+        <v>25</v>
+      </c>
+      <c r="D27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="17">
-        <v>28</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6">
         <v>1</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="46"/>
-    </row>
-    <row r="28" spans="2:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2049,19 +2365,19 @@
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:39" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
-        <v>37</v>
+    <row r="29" spans="2:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2069,36 +2385,68 @@
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:39" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="6">
-        <v>8</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
+    <row r="30" spans="2:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
-        <v>38</v>
+      <c r="G30" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="36"/>
+    </row>
+    <row r="31" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
@@ -2109,16 +2457,16 @@
       <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:39" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
-        <v>40</v>
+    <row r="32" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -2129,16 +2477,16 @@
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:39" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>42</v>
+    <row r="33" spans="2:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C33" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
@@ -2149,16 +2497,16 @@
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>41</v>
+    <row r="34" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
@@ -2169,16 +2517,16 @@
       <c r="F34" s="6">
         <v>0</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>44</v>
+    <row r="35" spans="2:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
@@ -2189,16 +2537,16 @@
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:39" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
-        <v>43</v>
+    <row r="36" spans="2:39" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D36" s="6">
         <v>2</v>
@@ -2209,16 +2557,16 @@
       <c r="F36" s="6">
         <v>0</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="28" t="s">
-        <v>45</v>
+    <row r="37" spans="2:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C37" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
@@ -2229,19 +2577,19 @@
       <c r="F37" s="6">
         <v>0</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
-        <v>46</v>
+    <row r="38" spans="2:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C38" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D38" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
@@ -2249,163 +2597,121 @@
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:39" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+    <row r="39" spans="2:39" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="6">
+        <v>21</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="6">
+        <v>25</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="6">
+        <v>26</v>
+      </c>
+      <c r="D41" s="6">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C42" s="17">
         <v>23</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D42" s="17">
         <v>12</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E42" s="17">
         <v>0</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F42" s="17">
         <v>0</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G42" s="33">
         <v>0</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="46"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="46"/>
-    </row>
-    <row r="40" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AC40"/>
-      <c r="AE40"/>
-      <c r="AG40"/>
-      <c r="AI40"/>
-      <c r="AK40"/>
-      <c r="AM40"/>
-    </row>
-    <row r="41" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AC41"/>
-      <c r="AE41"/>
-      <c r="AG41"/>
-      <c r="AI41"/>
-      <c r="AK41"/>
-      <c r="AM41"/>
-    </row>
-    <row r="42" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AC42"/>
-      <c r="AE42"/>
-      <c r="AG42"/>
-      <c r="AI42"/>
-      <c r="AK42"/>
-      <c r="AM42"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="36"/>
     </row>
     <row r="43" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43"/>
@@ -13117,6 +13423,108 @@
       <c r="AK357"/>
       <c r="AM357"/>
     </row>
+    <row r="358" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358"/>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+      <c r="L358"/>
+      <c r="M358"/>
+      <c r="N358"/>
+      <c r="O358"/>
+      <c r="P358"/>
+      <c r="Q358"/>
+      <c r="R358"/>
+      <c r="S358"/>
+      <c r="T358"/>
+      <c r="U358"/>
+      <c r="V358"/>
+      <c r="W358"/>
+      <c r="X358"/>
+      <c r="Y358"/>
+      <c r="Z358"/>
+      <c r="AA358"/>
+      <c r="AC358"/>
+      <c r="AE358"/>
+      <c r="AG358"/>
+      <c r="AI358"/>
+      <c r="AK358"/>
+      <c r="AM358"/>
+    </row>
+    <row r="359" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359"/>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+      <c r="L359"/>
+      <c r="M359"/>
+      <c r="N359"/>
+      <c r="O359"/>
+      <c r="P359"/>
+      <c r="Q359"/>
+      <c r="R359"/>
+      <c r="S359"/>
+      <c r="T359"/>
+      <c r="U359"/>
+      <c r="V359"/>
+      <c r="W359"/>
+      <c r="X359"/>
+      <c r="Y359"/>
+      <c r="Z359"/>
+      <c r="AA359"/>
+      <c r="AC359"/>
+      <c r="AE359"/>
+      <c r="AG359"/>
+      <c r="AI359"/>
+      <c r="AK359"/>
+      <c r="AM359"/>
+    </row>
+    <row r="360" spans="2:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360"/>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+      <c r="L360"/>
+      <c r="M360"/>
+      <c r="N360"/>
+      <c r="O360"/>
+      <c r="P360"/>
+      <c r="Q360"/>
+      <c r="R360"/>
+      <c r="S360"/>
+      <c r="T360"/>
+      <c r="U360"/>
+      <c r="V360"/>
+      <c r="W360"/>
+      <c r="X360"/>
+      <c r="Y360"/>
+      <c r="Z360"/>
+      <c r="AA360"/>
+      <c r="AC360"/>
+      <c r="AE360"/>
+      <c r="AG360"/>
+      <c r="AI360"/>
+      <c r="AK360"/>
+      <c r="AM360"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="K3:AM3"/>
@@ -13133,35 +13541,113 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:AM39">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="H5:AM6 H11:AM13 H8:AM9 H15:AM42">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AM4">
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:AM10">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:AM7">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:AM14">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
